--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13403,7 +13404,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -13435,7 +13435,6 @@
           <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -13467,7 +13466,6 @@
           <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -13482,6 +13480,5372 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7599</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3923</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3490</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7078</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4931</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>206008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华丰盛债券</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501027</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰融信灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000054</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华双债增利债券</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010832</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰合益混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.85</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004081</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010833</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰合益混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004082</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18759,7 +18760,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
           <t>80.11</t>
@@ -18846,6 +18846,6586 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6947</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2835</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0911</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8620</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8227</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7437</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7246</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>52.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4677</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>51.78</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>51.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008251</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008252</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>61.74</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004081</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004082</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25411,7 +25412,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -25427,6 +25427,106 @@
       </c>
       <c r="H173" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>172</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.81999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25440,7 +25441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25451,17 +25452,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25471,14 +25492,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>172</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.28</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -25487,14 +25530,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>140</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.81</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -25503,14 +25568,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>181</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77.7</v>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>198.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -25519,13 +25606,4512 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8891</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4852</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2908</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0103</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7977</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7484</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5802</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5785</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>52.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5321</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5113</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>140</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>160</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>95.81999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30010,7 +30011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30021,17 +30022,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30041,14 +30062,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>119</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.58</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -30057,14 +30100,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>172</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.28</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -30073,14 +30138,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>140</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.81</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -30089,14 +30176,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>181</v>
-      </c>
-      <c r="D5" t="n">
-        <v>77.7</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -30105,13 +30214,8167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3343</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0997</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6277</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3812</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3374</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3329</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2509</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1887</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0978</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0774</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0576</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9922</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8362</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7490</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6905</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6887</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6815</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6643</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6643</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6585</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4973</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4887</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4841</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>216</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>119</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>172</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>160</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>95.81999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38257,7 +38258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38268,17 +38269,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -38288,14 +38309,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>216</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.03</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>143.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -38304,14 +38347,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>119</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.58</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -38320,14 +38385,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.28</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>121.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -38336,14 +38423,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>140</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.81</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -38352,14 +38461,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>181</v>
-      </c>
-      <c r="D6" t="n">
-        <v>77.7</v>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -38368,13 +38499,5604 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8826</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5437</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4694</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1351</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9650</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9330</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8682</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7215</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6502</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4968</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>216</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>140</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>181</v>
+      </c>
+      <c r="D7" t="n">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>160</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>95.81999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
+++ b/数据整理/stocks/A股/上证主板/600426-华鲁恒升.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="D2" t="n">
-        <v>75.09</v>
+        <v>94.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>98.03</v>
+        <v>75.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
-        <v>54.58</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
-        <v>43.28</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
-        <v>45.81</v>
+        <v>43.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D7" t="n">
-        <v>77.7</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>160</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>95.81999999999999</v>
       </c>
     </row>
@@ -600,6 +617,9096 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H239"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>107.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.8448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>匯添富價值精選混合型證券投資基金 O</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9907</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7835</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5678</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5421</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2874</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2549</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2224</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0789</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0459</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8721</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7412</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6884</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6778</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>41.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4319</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011564</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>淳厚利加混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>32.03</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>011563</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>淳厚利加混合A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>32.03</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-0.3116</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6304,7 +15411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14550,7 +23657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19119,7 +28226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25698,7 +34805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31063,7 +40170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37976,7 +47083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
